--- a/PP - Spisak.xlsx
+++ b/PP - Spisak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Desktop\VII Semestar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB41D7-AABE-4E8E-B497-FE85A25939AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85315EE-800F-4C19-BCC6-9A54A49B7BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bez ocene" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="113">
   <si>
     <t>Broj indeksa</t>
   </si>
@@ -260,6 +260,111 @@
   </si>
   <si>
     <t>Vukašin</t>
+  </si>
+  <si>
+    <t>3'16"</t>
+  </si>
+  <si>
+    <t>3'17"</t>
+  </si>
+  <si>
+    <t>1'38"</t>
+  </si>
+  <si>
+    <t>3'11"</t>
+  </si>
+  <si>
+    <t>3'5"</t>
+  </si>
+  <si>
+    <t>4'11"</t>
+  </si>
+  <si>
+    <t>2'48"</t>
+  </si>
+  <si>
+    <t>4'12"</t>
+  </si>
+  <si>
+    <t>3'29"</t>
+  </si>
+  <si>
+    <t>3'34"</t>
+  </si>
+  <si>
+    <t>3'</t>
+  </si>
+  <si>
+    <t>2'53"</t>
+  </si>
+  <si>
+    <t>3'20"</t>
+  </si>
+  <si>
+    <t>3'18"</t>
+  </si>
+  <si>
+    <t>2'46"</t>
+  </si>
+  <si>
+    <t>2'5"</t>
+  </si>
+  <si>
+    <t>2'32"</t>
+  </si>
+  <si>
+    <t>3'36"</t>
+  </si>
+  <si>
+    <t>2'47"</t>
+  </si>
+  <si>
+    <t>2'8"</t>
+  </si>
+  <si>
+    <t>2'17"</t>
+  </si>
+  <si>
+    <t>3'46"</t>
+  </si>
+  <si>
+    <t>2'16"</t>
+  </si>
+  <si>
+    <t>2'</t>
+  </si>
+  <si>
+    <t>2'44"</t>
+  </si>
+  <si>
+    <t>3'10"</t>
+  </si>
+  <si>
+    <t>4'</t>
+  </si>
+  <si>
+    <t>3'14"</t>
+  </si>
+  <si>
+    <t>3'19"</t>
+  </si>
+  <si>
+    <t>3'45"</t>
+  </si>
+  <si>
+    <t>3'44"</t>
+  </si>
+  <si>
+    <t>2'15"</t>
+  </si>
+  <si>
+    <t>3'26"</t>
+  </si>
+  <si>
+    <t>3'2"</t>
+  </si>
+  <si>
+    <t>1'20"</t>
   </si>
 </sst>
 </file>
@@ -456,7 +561,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -491,18 +596,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -528,35 +621,7 @@
     <cellStyle name="Excel Built-in Accent3" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <strike val="0"/>
@@ -805,43 +870,20 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -865,6 +907,34 @@
         <right style="thin">
           <color auto="1"/>
         </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1029,10 +1099,65 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1133,31 +1258,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D36FBB6-B18D-4A76-807E-643A9AA497BA}" name="Table1" displayName="Table1" ref="A1:F43" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:F43" xr:uid="{9D36FBB6-B18D-4A76-807E-643A9AA497BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9D36FBB6-B18D-4A76-807E-643A9AA497BA}" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F1048576" xr:uid="{9D36FBB6-B18D-4A76-807E-643A9AA497BA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D031F325-5DFA-4995-B999-6AAF43A1AABF}" name="Broj indeksa" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7C621C9E-3C84-48F2-9379-B78C7A7389F0}" name="Ime" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{8682177E-9BDD-4B93-9901-CF7EBFEA3632}" name="Prezime" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{ADAF311E-32B0-4DF7-A92C-F7783A25A401}" name="Vreme početka" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{5CE247A2-BDB8-4B46-8BD3-C4E2A57BA621}" name="Vreme kraja" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{AB7D4D2D-6D7B-4384-AF96-E70084C3553B}" name="Utrošeno vreme" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{D031F325-5DFA-4995-B999-6AAF43A1AABF}" name="Broj indeksa" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7C621C9E-3C84-48F2-9379-B78C7A7389F0}" name="Ime" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8682177E-9BDD-4B93-9901-CF7EBFEA3632}" name="Prezime" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{ADAF311E-32B0-4DF7-A92C-F7783A25A401}" name="Vreme početka" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5CE247A2-BDB8-4B46-8BD3-C4E2A57BA621}" name="Vreme kraja" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{AB7D4D2D-6D7B-4384-AF96-E70084C3553B}" name="Utrošeno vreme" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87AFB6AC-7E41-4D2F-ADDC-18CADEFE1A29}" name="Table13" displayName="Table13" ref="A1:G43" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{87AFB6AC-7E41-4D2F-ADDC-18CADEFE1A29}" name="Table13" displayName="Table13" ref="A1:G43" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:G43" xr:uid="{87AFB6AC-7E41-4D2F-ADDC-18CADEFE1A29}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C39557F3-EDDD-4EB5-BAF5-DC9A72EDA3C9}" name="Broj indeksa" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EA341318-88AF-43F9-93CC-4632363C5FBC}" name="Ime" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4ED2A1AD-709B-494D-A85A-D2268F83D113}" name="Prezime" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E82231DC-9DA9-4A56-8321-F93E3659F9DE}" name="Vreme početka" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{12BD8A52-79D8-4480-AEDD-F74FDB3E0E34}" name="Vreme kraja" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D8CED823-DB27-41E7-B387-C4C988353FE3}" name="Utrošeno vreme" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E8B60A91-EBA2-43A1-933E-A0A9AD88AF38}" name="Ocena" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C39557F3-EDDD-4EB5-BAF5-DC9A72EDA3C9}" name="Broj indeksa" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{EA341318-88AF-43F9-93CC-4632363C5FBC}" name="Ime" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{4ED2A1AD-709B-494D-A85A-D2268F83D113}" name="Prezime" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{E82231DC-9DA9-4A56-8321-F93E3659F9DE}" name="Vreme početka" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{12BD8A52-79D8-4480-AEDD-F74FDB3E0E34}" name="Vreme kraja" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{D8CED823-DB27-41E7-B387-C4C988353FE3}" name="Utrošeno vreme" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{E8B60A91-EBA2-43A1-933E-A0A9AD88AF38}" name="Ocena" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1460,39 +1585,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="12" customWidth="1"/>
-    <col min="2" max="3" width="17.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="21" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" s="17" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1512,8 +1637,8 @@
       <c r="E2" s="4">
         <v>0.5</v>
       </c>
-      <c r="F2" s="5">
-        <v>3.16</v>
+      <c r="F2" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1532,8 +1657,8 @@
       <c r="E3" s="4">
         <v>0.5</v>
       </c>
-      <c r="F3" s="5">
-        <v>3.17</v>
+      <c r="F3" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1552,8 +1677,8 @@
       <c r="E4" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F4" s="5">
-        <v>1.38</v>
+      <c r="F4" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1572,8 +1697,8 @@
       <c r="E5" s="4">
         <v>0.5</v>
       </c>
-      <c r="F5" s="5">
-        <v>3.11</v>
+      <c r="F5" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1592,8 +1717,8 @@
       <c r="E6" s="4">
         <v>0.5</v>
       </c>
-      <c r="F6" s="5">
-        <v>3.05</v>
+      <c r="F6" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1612,8 +1737,8 @@
       <c r="E7" s="4">
         <v>0.500694444444445</v>
       </c>
-      <c r="F7" s="5">
-        <v>4.1100000000000003</v>
+      <c r="F7" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1632,8 +1757,8 @@
       <c r="E8" s="4">
         <v>0.5</v>
       </c>
-      <c r="F8" s="5">
-        <v>2.48</v>
+      <c r="F8" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1652,8 +1777,8 @@
       <c r="E9" s="4">
         <v>0.5</v>
       </c>
-      <c r="F9" s="5">
-        <v>4.12</v>
+      <c r="F9" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1672,8 +1797,8 @@
       <c r="E10" s="4">
         <v>0.5</v>
       </c>
-      <c r="F10" s="5">
-        <v>3.29</v>
+      <c r="F10" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1692,8 +1817,8 @@
       <c r="E11" s="4">
         <v>0.5</v>
       </c>
-      <c r="F11" s="5">
-        <v>3.34</v>
+      <c r="F11" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1712,8 +1837,8 @@
       <c r="E12" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F12" s="5">
-        <v>3</v>
+      <c r="F12" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1732,8 +1857,8 @@
       <c r="E13" s="4">
         <v>0.5</v>
       </c>
-      <c r="F13" s="5">
-        <v>2.5299999999999998</v>
+      <c r="F13" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1752,8 +1877,8 @@
       <c r="E14" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F14" s="5">
-        <v>3.2</v>
+      <c r="F14" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,8 +1897,8 @@
       <c r="E15" s="4">
         <v>0.5</v>
       </c>
-      <c r="F15" s="5">
-        <v>3.18</v>
+      <c r="F15" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1792,8 +1917,8 @@
       <c r="E16" s="4">
         <v>0.5</v>
       </c>
-      <c r="F16" s="5">
-        <v>2.46</v>
+      <c r="F16" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,8 +1937,8 @@
       <c r="E17" s="4">
         <v>0.5</v>
       </c>
-      <c r="F17" s="5">
-        <v>3.18</v>
+      <c r="F17" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1832,8 +1957,8 @@
       <c r="E18" s="4">
         <v>0.5</v>
       </c>
-      <c r="F18" s="5">
-        <v>2.0499999999999998</v>
+      <c r="F18" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1852,8 +1977,8 @@
       <c r="E19" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F19" s="5">
-        <v>2.3199999999999998</v>
+      <c r="F19" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1872,8 +1997,8 @@
       <c r="E20" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F20" s="5">
-        <v>3.36</v>
+      <c r="F20" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1892,8 +2017,8 @@
       <c r="E21" s="4">
         <v>0.5</v>
       </c>
-      <c r="F21" s="5">
-        <v>3</v>
+      <c r="F21" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1912,8 +2037,8 @@
       <c r="E22" s="4">
         <v>0.5</v>
       </c>
-      <c r="F22" s="5">
-        <v>2.4700000000000002</v>
+      <c r="F22" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1932,8 +2057,8 @@
       <c r="E23" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F23" s="5">
-        <v>2.08</v>
+      <c r="F23" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1952,8 +2077,8 @@
       <c r="E24" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F24" s="5">
-        <v>3</v>
+      <c r="F24" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1972,8 +2097,8 @@
       <c r="E25" s="4">
         <v>0.5</v>
       </c>
-      <c r="F25" s="5">
-        <v>2.17</v>
+      <c r="F25" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1992,8 +2117,8 @@
       <c r="E26" s="4">
         <v>0.500694444444445</v>
       </c>
-      <c r="F26" s="5">
-        <v>3.2</v>
+      <c r="F26" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2012,8 +2137,8 @@
       <c r="E27" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F27" s="5">
-        <v>3.46</v>
+      <c r="F27" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,8 +2157,8 @@
       <c r="E28" s="4">
         <v>0.5</v>
       </c>
-      <c r="F28" s="5">
-        <v>2.16</v>
+      <c r="F28" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2052,8 +2177,8 @@
       <c r="E29" s="4">
         <v>0.5</v>
       </c>
-      <c r="F29" s="5">
-        <v>2</v>
+      <c r="F29" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2072,8 +2197,8 @@
       <c r="E30" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F30" s="5">
-        <v>2.17</v>
+      <c r="F30" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2092,8 +2217,8 @@
       <c r="E31" s="4">
         <v>0.5</v>
       </c>
-      <c r="F31" s="5">
-        <v>2.44</v>
+      <c r="F31" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2112,8 +2237,8 @@
       <c r="E32" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F32" s="5">
-        <v>3.1</v>
+      <c r="F32" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,8 +2257,8 @@
       <c r="E33" s="4">
         <v>0.5</v>
       </c>
-      <c r="F33" s="5">
-        <v>4</v>
+      <c r="F33" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2152,8 +2277,8 @@
       <c r="E34" s="4">
         <v>0.5</v>
       </c>
-      <c r="F34" s="5">
-        <v>2.3199999999999998</v>
+      <c r="F34" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2172,8 +2297,8 @@
       <c r="E35" s="4">
         <v>0.500694444444445</v>
       </c>
-      <c r="F35" s="5">
-        <v>3.14</v>
+      <c r="F35" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2192,8 +2317,8 @@
       <c r="E36" s="4">
         <v>0.5</v>
       </c>
-      <c r="F36" s="5">
-        <v>3.19</v>
+      <c r="F36" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2212,8 +2337,8 @@
       <c r="E37" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F37" s="5">
-        <v>3.45</v>
+      <c r="F37" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2232,8 +2357,8 @@
       <c r="E38" s="4">
         <v>0.500694444444445</v>
       </c>
-      <c r="F38" s="5">
-        <v>3.1</v>
+      <c r="F38" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2252,8 +2377,8 @@
       <c r="E39" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F39" s="5">
-        <v>3.44</v>
+      <c r="F39" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2272,8 +2397,8 @@
       <c r="E40" s="4">
         <v>0.5</v>
       </c>
-      <c r="F40" s="5">
-        <v>2.15</v>
+      <c r="F40" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2292,8 +2417,8 @@
       <c r="E41" s="4">
         <v>0.5</v>
       </c>
-      <c r="F41" s="5">
-        <v>3.26</v>
+      <c r="F41" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2312,8 +2437,8 @@
       <c r="E42" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F42" s="5">
-        <v>3.02</v>
+      <c r="F42" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2332,8 +2457,8 @@
       <c r="E43" s="9">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F43" s="10">
-        <v>1.2</v>
+      <c r="F43" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2349,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11360A35-2A8A-4491-95F0-F53BF1E072E6}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2360,26 +2485,26 @@
     <col min="4" max="6" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2399,8 +2524,8 @@
       <c r="E2" s="4">
         <v>0.5</v>
       </c>
-      <c r="F2" s="5">
-        <v>3.16</v>
+      <c r="F2" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>9</v>
@@ -2422,8 +2547,8 @@
       <c r="E3" s="4">
         <v>0.5</v>
       </c>
-      <c r="F3" s="5">
-        <v>3.17</v>
+      <c r="F3" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="G3" s="6">
         <v>0.9</v>
@@ -2445,8 +2570,8 @@
       <c r="E4" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F4" s="5">
-        <v>1.38</v>
+      <c r="F4" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
@@ -2468,8 +2593,8 @@
       <c r="E5" s="4">
         <v>0.5</v>
       </c>
-      <c r="F5" s="5">
-        <v>3.11</v>
+      <c r="F5" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G5" s="6">
         <v>0.75</v>
@@ -2491,8 +2616,8 @@
       <c r="E6" s="4">
         <v>0.5</v>
       </c>
-      <c r="F6" s="5">
-        <v>3.05</v>
+      <c r="F6" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -2514,8 +2639,8 @@
       <c r="E7" s="4">
         <v>0.500694444444445</v>
       </c>
-      <c r="F7" s="5">
-        <v>4.1100000000000003</v>
+      <c r="F7" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="G7" s="6">
         <v>0.57999999999999996</v>
@@ -2537,8 +2662,8 @@
       <c r="E8" s="4">
         <v>0.5</v>
       </c>
-      <c r="F8" s="5">
-        <v>2.48</v>
+      <c r="F8" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="G8" s="6">
         <v>1.03</v>
@@ -2560,8 +2685,8 @@
       <c r="E9" s="4">
         <v>0.5</v>
       </c>
-      <c r="F9" s="5">
-        <v>4.12</v>
+      <c r="F9" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G9" s="6">
         <v>1.08</v>
@@ -2583,8 +2708,8 @@
       <c r="E10" s="4">
         <v>0.5</v>
       </c>
-      <c r="F10" s="5">
-        <v>3.29</v>
+      <c r="F10" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G10" s="6">
         <v>0.5</v>
@@ -2606,8 +2731,8 @@
       <c r="E11" s="4">
         <v>0.5</v>
       </c>
-      <c r="F11" s="5">
-        <v>3.34</v>
+      <c r="F11" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
@@ -2629,8 +2754,8 @@
       <c r="E12" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F12" s="5">
-        <v>3</v>
+      <c r="F12" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -2652,8 +2777,8 @@
       <c r="E13" s="4">
         <v>0.5</v>
       </c>
-      <c r="F13" s="5">
-        <v>2.5299999999999998</v>
+      <c r="F13" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
@@ -2675,8 +2800,8 @@
       <c r="E14" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F14" s="5">
-        <v>3.2</v>
+      <c r="F14" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="G14" s="6">
         <v>0.55000000000000004</v>
@@ -2698,8 +2823,8 @@
       <c r="E15" s="4">
         <v>0.5</v>
       </c>
-      <c r="F15" s="5">
-        <v>3.18</v>
+      <c r="F15" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G15" s="6">
         <v>1.85</v>
@@ -2721,8 +2846,8 @@
       <c r="E16" s="4">
         <v>0.5</v>
       </c>
-      <c r="F16" s="5">
-        <v>2.46</v>
+      <c r="F16" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="G16" s="6">
         <v>0.25</v>
@@ -2744,8 +2869,8 @@
       <c r="E17" s="4">
         <v>0.5</v>
       </c>
-      <c r="F17" s="5">
-        <v>3.18</v>
+      <c r="F17" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>9</v>
@@ -2767,8 +2892,8 @@
       <c r="E18" s="4">
         <v>0.5</v>
       </c>
-      <c r="F18" s="5">
-        <v>2.0499999999999998</v>
+      <c r="F18" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G18" s="6">
         <v>0.75</v>
@@ -2790,8 +2915,8 @@
       <c r="E19" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F19" s="5">
-        <v>2.3199999999999998</v>
+      <c r="F19" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
@@ -2813,8 +2938,8 @@
       <c r="E20" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F20" s="5">
-        <v>3.36</v>
+      <c r="F20" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -2836,8 +2961,8 @@
       <c r="E21" s="4">
         <v>0.5</v>
       </c>
-      <c r="F21" s="5">
-        <v>3</v>
+      <c r="F21" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>9</v>
@@ -2859,8 +2984,8 @@
       <c r="E22" s="4">
         <v>0.5</v>
       </c>
-      <c r="F22" s="5">
-        <v>2.4700000000000002</v>
+      <c r="F22" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="G22" s="6">
         <v>0.75</v>
@@ -2882,8 +3007,8 @@
       <c r="E23" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F23" s="5">
-        <v>2.08</v>
+      <c r="F23" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="G23" s="6">
         <v>1.63</v>
@@ -2905,8 +3030,8 @@
       <c r="E24" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F24" s="5">
-        <v>3</v>
+      <c r="F24" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="G24" s="6">
         <v>1.1299999999999999</v>
@@ -2928,8 +3053,8 @@
       <c r="E25" s="4">
         <v>0.5</v>
       </c>
-      <c r="F25" s="5">
-        <v>2.17</v>
+      <c r="F25" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -2951,8 +3076,8 @@
       <c r="E26" s="4">
         <v>0.500694444444445</v>
       </c>
-      <c r="F26" s="5">
-        <v>3.2</v>
+      <c r="F26" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="G26" s="6">
         <v>1.5</v>
@@ -2974,8 +3099,8 @@
       <c r="E27" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F27" s="5">
-        <v>3.46</v>
+      <c r="F27" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G27" s="6">
         <v>0.33</v>
@@ -2997,8 +3122,8 @@
       <c r="E28" s="4">
         <v>0.5</v>
       </c>
-      <c r="F28" s="5">
-        <v>2.16</v>
+      <c r="F28" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G28" s="6">
         <v>1.75</v>
@@ -3020,8 +3145,8 @@
       <c r="E29" s="4">
         <v>0.5</v>
       </c>
-      <c r="F29" s="5">
-        <v>2</v>
+      <c r="F29" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="G29" s="6">
         <v>1.25</v>
@@ -3043,8 +3168,8 @@
       <c r="E30" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F30" s="5">
-        <v>2.17</v>
+      <c r="F30" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="G30" s="6">
         <v>0.25</v>
@@ -3066,8 +3191,8 @@
       <c r="E31" s="4">
         <v>0.5</v>
       </c>
-      <c r="F31" s="5">
-        <v>2.44</v>
+      <c r="F31" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="G31" s="6">
         <v>1.25</v>
@@ -3089,8 +3214,8 @@
       <c r="E32" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F32" s="5">
-        <v>3.1</v>
+      <c r="F32" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G32" s="6">
         <v>1.9</v>
@@ -3112,8 +3237,8 @@
       <c r="E33" s="4">
         <v>0.5</v>
       </c>
-      <c r="F33" s="5">
-        <v>4</v>
+      <c r="F33" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="G33" s="6">
         <v>0.5</v>
@@ -3135,8 +3260,8 @@
       <c r="E34" s="4">
         <v>0.5</v>
       </c>
-      <c r="F34" s="5">
-        <v>2.3199999999999998</v>
+      <c r="F34" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="G34" s="6">
         <v>0.5</v>
@@ -3158,8 +3283,8 @@
       <c r="E35" s="4">
         <v>0.500694444444445</v>
       </c>
-      <c r="F35" s="5">
-        <v>3.14</v>
+      <c r="F35" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>9</v>
@@ -3181,8 +3306,8 @@
       <c r="E36" s="4">
         <v>0.5</v>
       </c>
-      <c r="F36" s="5">
-        <v>3.19</v>
+      <c r="F36" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G36" s="6">
         <v>1.33</v>
@@ -3204,8 +3329,8 @@
       <c r="E37" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F37" s="5">
-        <v>3.45</v>
+      <c r="F37" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="G37" s="6">
         <v>1.07</v>
@@ -3227,8 +3352,8 @@
       <c r="E38" s="4">
         <v>0.500694444444445</v>
       </c>
-      <c r="F38" s="5">
-        <v>3.1</v>
+      <c r="F38" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G38" s="6">
         <v>1</v>
@@ -3250,8 +3375,8 @@
       <c r="E39" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F39" s="5">
-        <v>3.44</v>
+      <c r="F39" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="G39" s="6">
         <v>0.57999999999999996</v>
@@ -3273,8 +3398,8 @@
       <c r="E40" s="4">
         <v>0.5</v>
       </c>
-      <c r="F40" s="5">
-        <v>2.15</v>
+      <c r="F40" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="G40" s="6">
         <v>0</v>
@@ -3296,8 +3421,8 @@
       <c r="E41" s="4">
         <v>0.5</v>
       </c>
-      <c r="F41" s="5">
-        <v>3.26</v>
+      <c r="F41" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="G41" s="6">
         <v>1.25</v>
@@ -3319,8 +3444,8 @@
       <c r="E42" s="4">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F42" s="5">
-        <v>3.02</v>
+      <c r="F42" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="G42" s="6">
         <v>1.5</v>
@@ -3342,8 +3467,8 @@
       <c r="E43" s="9">
         <v>0.50138888888888899</v>
       </c>
-      <c r="F43" s="10">
-        <v>1.2</v>
+      <c r="F43" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="G43" s="11">
         <v>0.25</v>
@@ -3351,8 +3476,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>